--- a/University Event Management Application.xlsx
+++ b/University Event Management Application.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="162">
   <si>
     <t xml:space="preserve">As a </t>
   </si>
@@ -91,6 +91,9 @@
     <t>page</t>
   </si>
   <si>
+    <t>Malak Amr</t>
+  </si>
+  <si>
     <t>Malak</t>
   </si>
   <si>
@@ -120,6 +123,9 @@
     </r>
   </si>
   <si>
+    <t>Mohamed Alaa</t>
+  </si>
+  <si>
     <t>Alaa</t>
   </si>
   <si>
@@ -184,9 +190,6 @@
   </si>
   <si>
     <t>Yasmine</t>
-  </si>
-  <si>
-    <t>in progress</t>
   </si>
   <si>
     <t>Student/Staff/ Events Office/TA/ Professor</t>
@@ -1487,7 +1490,7 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1495,13 +1498,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="24">
         <v>3.0</v>
@@ -1515,7 +1518,7 @@
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>9</v>
@@ -1533,7 +1536,7 @@
       <c r="X7" s="24"/>
       <c r="Y7" s="24"/>
       <c r="Z7" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -1544,7 +1547,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="24">
@@ -1584,7 +1587,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="24">
@@ -1621,13 +1624,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="32">
         <v>3.0</v>
@@ -1641,7 +1644,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
       <c r="L10" s="33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>9</v>
@@ -1659,7 +1662,7 @@
       <c r="X10" s="32"/>
       <c r="Y10" s="32"/>
       <c r="Z10" s="34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -1667,10 +1670,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32">
@@ -1707,13 +1710,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" s="32">
         <v>3.0</v>
@@ -1749,10 +1752,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32">
@@ -1789,10 +1792,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="14">
@@ -1826,10 +1829,10 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="14">
@@ -1863,10 +1866,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="14">
@@ -1900,10 +1903,10 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="14">
@@ -1937,10 +1940,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="14">
@@ -1977,7 +1980,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="14">
@@ -2014,7 +2017,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="14">
@@ -2051,7 +2054,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="41">
@@ -2066,10 +2069,10 @@
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
       <c r="L21" s="42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="N21" s="41"/>
       <c r="O21" s="41"/>
@@ -2084,7 +2087,7 @@
       <c r="X21" s="41"/>
       <c r="Y21" s="41"/>
       <c r="Z21" s="43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" hidden="1">
@@ -2092,10 +2095,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="14">
@@ -2132,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="14">
@@ -2169,7 +2172,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="14">
@@ -2206,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="41">
@@ -2222,7 +2225,7 @@
       <c r="K25" s="41"/>
       <c r="L25" s="41"/>
       <c r="M25" s="10" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="N25" s="41"/>
       <c r="O25" s="41"/>
@@ -2246,7 +2249,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="14">
@@ -2283,7 +2286,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="14">
@@ -2320,10 +2323,10 @@
         <v>5</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" s="46">
         <v>4.0</v>
@@ -2338,7 +2341,7 @@
       <c r="K28" s="46"/>
       <c r="L28" s="46"/>
       <c r="M28" s="10" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="N28" s="46"/>
       <c r="O28" s="46"/>
@@ -2362,10 +2365,10 @@
         <v>5</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E29" s="14">
         <v>4.0</v>
@@ -2401,7 +2404,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="14">
@@ -2438,7 +2441,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="14">
@@ -2472,10 +2475,10 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32" s="49"/>
       <c r="E32" s="50">
@@ -2490,7 +2493,7 @@
       <c r="J32" s="51"/>
       <c r="K32" s="51"/>
       <c r="L32" s="52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>9</v>
@@ -2508,7 +2511,7 @@
       <c r="X32" s="51"/>
       <c r="Y32" s="51"/>
       <c r="Z32" s="52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
@@ -2516,13 +2519,13 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E33" s="50">
         <v>2.0</v>
@@ -2558,10 +2561,10 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D34" s="49"/>
       <c r="E34" s="50">
@@ -2598,13 +2601,13 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D35" s="49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E35" s="50">
         <v>2.0</v>
@@ -2640,10 +2643,10 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D36" s="56"/>
       <c r="E36" s="57">
@@ -2658,7 +2661,7 @@
       <c r="J36" s="58"/>
       <c r="K36" s="58"/>
       <c r="L36" s="59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>9</v>
@@ -2676,7 +2679,7 @@
       <c r="X36" s="58"/>
       <c r="Y36" s="58"/>
       <c r="Z36" s="59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -2684,10 +2687,10 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D37" s="56"/>
       <c r="E37" s="57">
@@ -2703,7 +2706,7 @@
       <c r="K37" s="58"/>
       <c r="L37" s="58"/>
       <c r="M37" s="10" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="N37" s="58"/>
       <c r="O37" s="58"/>
@@ -2724,10 +2727,10 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D38" s="56"/>
       <c r="E38" s="57">
@@ -2743,7 +2746,7 @@
       <c r="K38" s="58"/>
       <c r="L38" s="58"/>
       <c r="M38" s="10" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="N38" s="58"/>
       <c r="O38" s="58"/>
@@ -2764,10 +2767,10 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="4">
@@ -2782,10 +2785,10 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="4">
@@ -2800,10 +2803,10 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D41" s="63"/>
       <c r="E41" s="64">
@@ -2818,7 +2821,7 @@
       <c r="J41" s="65"/>
       <c r="K41" s="65"/>
       <c r="L41" s="66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M41" s="10" t="s">
         <v>9</v>
@@ -2836,7 +2839,7 @@
       <c r="X41" s="65"/>
       <c r="Y41" s="65"/>
       <c r="Z41" s="66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
@@ -2844,10 +2847,10 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D42" s="63"/>
       <c r="E42" s="64">
@@ -2884,10 +2887,10 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D43" s="63"/>
       <c r="E43" s="64">
@@ -2924,10 +2927,10 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="4">
@@ -2942,10 +2945,10 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="4">
@@ -2960,13 +2963,13 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D46" s="63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E46" s="68">
         <v>2.0</v>
@@ -3002,10 +3005,10 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D47" s="63"/>
       <c r="E47" s="64">
@@ -3042,13 +3045,13 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" s="4">
         <v>2.0</v>
@@ -3062,13 +3065,13 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D49" s="63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E49" s="64">
         <v>2.0</v>
@@ -3104,10 +3107,10 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="4">
@@ -3122,13 +3125,13 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E51" s="4">
         <v>2.0</v>
@@ -3142,10 +3145,10 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="4">
@@ -3160,10 +3163,10 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="4">
@@ -3178,10 +3181,10 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="4">
@@ -3196,10 +3199,10 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D55" s="18"/>
       <c r="E55" s="4">
@@ -3214,10 +3217,10 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="4">
@@ -3232,10 +3235,10 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="4">
@@ -3250,10 +3253,10 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="4">
@@ -3268,10 +3271,10 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D59" s="18"/>
       <c r="E59" s="4">
@@ -3289,7 +3292,7 @@
         <v>10</v>
       </c>
       <c r="C60" s="70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D60" s="71"/>
       <c r="E60" s="72">
@@ -3304,7 +3307,7 @@
       <c r="J60" s="73"/>
       <c r="K60" s="73"/>
       <c r="L60" s="74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M60" s="10" t="s">
         <v>9</v>
@@ -3322,7 +3325,7 @@
       <c r="X60" s="73"/>
       <c r="Y60" s="73"/>
       <c r="Z60" s="74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61">
@@ -3333,10 +3336,10 @@
         <v>10</v>
       </c>
       <c r="C61" s="70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D61" s="76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E61" s="72">
         <v>2.0</v>
@@ -3375,10 +3378,10 @@
         <v>10</v>
       </c>
       <c r="C62" s="70" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D62" s="76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E62" s="72">
         <v>2.0</v>
@@ -3417,7 +3420,7 @@
         <v>10</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="4">
@@ -3435,7 +3438,7 @@
         <v>10</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="4">
@@ -3453,10 +3456,10 @@
         <v>10</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E65" s="4">
         <v>2.0</v>
@@ -3473,7 +3476,7 @@
         <v>10</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="4">
@@ -3491,7 +3494,7 @@
         <v>10</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D67" s="18"/>
       <c r="E67" s="4">
@@ -3509,10 +3512,10 @@
         <v>10</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E68" s="4">
         <v>2.0</v>
@@ -3529,7 +3532,7 @@
         <v>10</v>
       </c>
       <c r="C69" s="70" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D69" s="76"/>
       <c r="E69" s="72">
@@ -3569,7 +3572,7 @@
         <v>10</v>
       </c>
       <c r="C70" s="70" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D70" s="76"/>
       <c r="E70" s="72">
@@ -3609,7 +3612,7 @@
         <v>10</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="4">
@@ -3627,7 +3630,7 @@
         <v>10</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D72" s="18"/>
       <c r="E72" s="4">
@@ -3642,10 +3645,10 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D73" s="18"/>
       <c r="E73" s="4">
@@ -3663,7 +3666,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="4">
@@ -3678,10 +3681,10 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="4">
@@ -3696,10 +3699,10 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C76" s="78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D76" s="79"/>
       <c r="E76" s="80">
@@ -3736,10 +3739,10 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="4">
@@ -3754,10 +3757,10 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C78" s="78" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D78" s="79"/>
       <c r="E78" s="80">
@@ -3797,7 +3800,7 @@
         <v>13</v>
       </c>
       <c r="C79" s="78" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D79" s="79"/>
       <c r="E79" s="80">
@@ -3812,7 +3815,7 @@
       <c r="J79" s="81"/>
       <c r="K79" s="81"/>
       <c r="L79" s="83" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M79" s="10" t="s">
         <v>9</v>
@@ -3830,7 +3833,7 @@
       <c r="X79" s="81"/>
       <c r="Y79" s="81"/>
       <c r="Z79" s="83" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" hidden="1">
@@ -3841,10 +3844,10 @@
         <v>13</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E80" s="4">
         <v>2.0</v>
@@ -3858,10 +3861,10 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C81" s="85" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D81" s="86"/>
       <c r="E81" s="87">
@@ -3901,7 +3904,7 @@
         <v>5</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="4">
@@ -3916,10 +3919,10 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="4">
@@ -3937,7 +3940,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="4">
@@ -3952,10 +3955,10 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C85" s="85" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D85" s="86"/>
       <c r="E85" s="87">
@@ -3970,7 +3973,7 @@
       <c r="J85" s="88"/>
       <c r="K85" s="88"/>
       <c r="L85" s="90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M85" s="10" t="s">
         <v>9</v>
@@ -3988,7 +3991,7 @@
       <c r="X85" s="88"/>
       <c r="Y85" s="88"/>
       <c r="Z85" s="90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" ht="14.25" hidden="1" customHeight="1">
@@ -3996,10 +3999,10 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="4">
@@ -4014,13 +4017,13 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E87" s="4">
         <v>2.0</v>
@@ -4037,7 +4040,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="4">
@@ -6015,23 +6018,23 @@
     <row r="1">
       <c r="A1" s="91"/>
       <c r="B1" s="92" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F1" s="93"/>
     </row>
     <row r="2">
       <c r="A2" s="94"/>
       <c r="B2" s="95" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C2" s="95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D2" s="95" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2" s="95" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F2" s="94"/>
     </row>
@@ -6040,7 +6043,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C3" s="97">
         <v>3.0</v>
@@ -6049,7 +6052,7 @@
         <v>20.0</v>
       </c>
       <c r="E3" s="98" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F3" s="93"/>
     </row>
@@ -6058,7 +6061,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" s="97">
         <v>3.0</v>
@@ -6074,7 +6077,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5" s="97">
         <v>3.0</v>
@@ -6083,7 +6086,7 @@
         <v>5.0</v>
       </c>
       <c r="E5" s="99" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F5" s="93"/>
     </row>
@@ -6092,7 +6095,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" s="97">
         <v>3.0</v>
@@ -6108,7 +6111,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" s="97">
         <v>3.0</v>
@@ -6124,7 +6127,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C8" s="97">
         <v>3.0</v>
@@ -6140,7 +6143,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" s="97">
         <v>3.0</v>
@@ -6156,7 +6159,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10" s="97">
         <v>3.0</v>
@@ -6188,16 +6191,16 @@
     <row r="13">
       <c r="A13" s="94"/>
       <c r="B13" s="95" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D13" s="95" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E13" s="95" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F13" s="94"/>
     </row>
@@ -6206,7 +6209,7 @@
         <v>1.0</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C14" s="97">
         <v>3.0</v>
@@ -6215,7 +6218,7 @@
         <v>10.0</v>
       </c>
       <c r="E14" s="98" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F14" s="93"/>
     </row>
@@ -6224,7 +6227,7 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C15" s="97">
         <v>3.0</v>
@@ -6272,7 +6275,7 @@
     <row r="20">
       <c r="A20" s="93"/>
       <c r="B20" s="99" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C20" s="101">
         <v>3.0</v>
@@ -6281,7 +6284,7 @@
         <v>20.0</v>
       </c>
       <c r="E20" s="102" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F20" s="93"/>
     </row>
@@ -6312,7 +6315,7 @@
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="93"/>
       <c r="B24" s="103" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C24" s="103"/>
       <c r="D24" s="100">
